--- a/src/main/java/learn/testng/groups/annotation.xlsx
+++ b/src/main/java/learn/testng/groups/annotation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>@BeforeSuite</t>
   </si>
@@ -70,9 +70,15 @@
     <t>@DataProvider</t>
   </si>
   <si>
+    <t>数据驱动</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
+    <t>数据驱动名称</t>
+  </si>
+  <si>
     <t>parallel</t>
   </si>
   <si>
@@ -101,6 +107,9 @@
   </si>
   <si>
     <t>expectedExceptions</t>
+  </si>
+  <si>
+    <t>测试用例分组</t>
   </si>
   <si>
     <t>invocationCount</t>
@@ -129,10 +138,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -164,28 +173,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,21 +188,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,9 +224,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -244,56 +254,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,6 +285,36 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -316,25 +325,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,30 +475,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -382,121 +487,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,6 +516,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -525,11 +543,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,8 +561,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,26 +582,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,16 +602,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -615,10 +624,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,137 +636,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -768,9 +777,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1092,13 +1098,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:A48"/>
+  <dimension ref="A2:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.6363636363636" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="18.6363636363636" defaultRowHeight="14" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.5454545454545" customWidth="1"/>
     <col min="2" max="16384" width="18.6363636363636" customWidth="1"/>
@@ -1192,49 +1198,55 @@
     <row r="19" spans="1:1">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="4" t="s">
-        <v>20</v>
+      <c r="A24" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="4" t="s">
-        <v>21</v>
+      <c r="A26" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="4" t="s">
-        <v>23</v>
+      <c r="A29" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="4" t="s">
-        <v>24</v>
+      <c r="A32" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -1244,12 +1256,12 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -1264,7 +1276,7 @@
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -1274,47 +1286,50 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="B41" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
